--- a/data/trans_camb/IP21B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 42,44</t>
+          <t>-78,83; 41,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-80,48; 0,0</t>
+          <t>-80,85; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 24,88</t>
+          <t>-51,15; 24,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 79,91</t>
+          <t>-26,61; 81,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 0,0</t>
+          <t>-64,4; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 21,49</t>
+          <t>-10,89; 20,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 33,21</t>
+          <t>-9,27; 30,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 52,17</t>
+          <t>-5,11; 55,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 19,43</t>
+          <t>-16,69; 19,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 18,21</t>
+          <t>-21,65; 16,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 43,37</t>
+          <t>-19,07; 40,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 15,88</t>
+          <t>-8,93; 14,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 20,02</t>
+          <t>-11,24; 18,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 36,87</t>
+          <t>-6,62; 38,2</t>
         </is>
       </c>
     </row>
@@ -1007,22 +1007,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,24; 500,69</t>
+          <t>-71,63; 494,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 931,8</t>
+          <t>-69,12; 621,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1167,11</t>
+          <t>-100,0; 1225,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,77; 473,78</t>
+          <t>-76,54; 424,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 261,94</t>
+          <t>-52,04; 234,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 292,95</t>
+          <t>-66,44; 261,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 566,68</t>
+          <t>-54,25; 583,5</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,63</t>
+          <t>7,17; 55,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,29</t>
+          <t>0,0; 56,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,63</t>
+          <t>0,0; 73,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 69,57</t>
+          <t>10,26; 68,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,65</t>
+          <t>0,0; 81,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 47,5</t>
+          <t>7,62; 48,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 49,24</t>
+          <t>10,87; 53,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 69,71</t>
+          <t>0,0; 69,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 19,9</t>
+          <t>-8,87; 20,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 26,82</t>
+          <t>-7,63; 28,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 39,91</t>
+          <t>-7,58; 38,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 20,67</t>
+          <t>-7,19; 21,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 32,97</t>
+          <t>-3,29; 32,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 45,77</t>
+          <t>-7,45; 44,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 16,07</t>
+          <t>-3,64; 16,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 23,78</t>
+          <t>-0,92; 24,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 31,67</t>
+          <t>-1,95; 32,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 341,74</t>
+          <t>-52,35; 374,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 462,67</t>
+          <t>-56,37; 479,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 646,64</t>
+          <t>-61,59; 587,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 603,8</t>
+          <t>-60,45; 626,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 1076,51</t>
+          <t>-32,86; 1019,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1703,62</t>
+          <t>-100,0; 1376,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 246,01</t>
+          <t>-26,07; 259,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 317,49</t>
+          <t>-13,37; 372,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 456,96</t>
+          <t>-21,36; 497,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35,63</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-18,75</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>60,14</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-39,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>35,63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 41,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,84; 41,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,76; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 24,88</t>
+          <t>-62,52; 24,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 81,34</t>
+          <t>-26,2; 81,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 0,0</t>
+          <t>-65,19; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-47,04%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>150,88%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,77</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>8,99</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>19,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>18,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>10,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 20,69</t>
+          <t>-20,17; 17,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 30,97</t>
+          <t>-20,71; 18,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 55,28</t>
+          <t>-18,91; 48,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 19,69</t>
+          <t>-11,01; 21,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 16,88</t>
+          <t>-9,55; 32,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 40,64</t>
+          <t>-7,77; 56,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 14,47</t>
+          <t>-8,82; 16,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 18,83</t>
+          <t>-9,18; 19,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 38,2</t>
+          <t>-7,58; 36,45</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-22,75%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>33,76%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>80,6%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>175,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-22,75%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>163,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>86,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 494,59</t>
+          <t>-84,36; 299,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,12; 621,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1225,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 424,78</t>
+          <t>-78,79; 483,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,71; 846,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1278,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 234,84</t>
+          <t>-52,31; 247,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 261,01</t>
+          <t>-56,15; 309,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 583,5</t>
+          <t>-54,98; 528,02</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>21,09</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>25,16</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>10,67</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>32,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>21,09</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>38,03</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,04</t>
+          <t>35,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36,46</t>
+          <t>36,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 55,22</t>
+          <t>0,0; 72,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,71</t>
+          <t>10,12; 73,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,86</t>
+          <t>0,0; 83,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,3</t>
+          <t>7,18; 55,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 68,2</t>
+          <t>0,0; 46,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,6</t>
+          <t>0,0; 83,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 48,98</t>
+          <t>5,78; 51,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 53,02</t>
+          <t>10,02; 50,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,64</t>
+          <t>10,11; 71,84</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14,62</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>5,75</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>8,96</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>13,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 20,21</t>
+          <t>-7,84; 20,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 28,51</t>
+          <t>-2,99; 30,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 38,33</t>
+          <t>-4,57; 47,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 21,41</t>
+          <t>-7,8; 21,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 32,01</t>
+          <t>-8,19; 29,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 44,27</t>
+          <t>-6,97; 44,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 16,28</t>
+          <t>-4,16; 16,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 24,86</t>
+          <t>-1,7; 23,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 32,92</t>
+          <t>-0,86; 32,18</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>131,59%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>150,45%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>46,89%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>72,98%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>111,11%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>59,82%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>131,59%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>157,69%</t>
+          <t>109,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>128,66%</t>
+          <t>124,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 374,37</t>
+          <t>-65,48; 625,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 479,62</t>
+          <t>-36,55; 906,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 587,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 626,86</t>
+          <t>-45,6; 462,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 1019,23</t>
+          <t>-50,28; 449,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1376,09</t>
+          <t>-50,02; 824,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 259,32</t>
+          <t>-29,11; 260,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 372,86</t>
+          <t>-17,47; 356,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 497,05</t>
+          <t>-12,32; 477,27</t>
         </is>
       </c>
     </row>
